--- a/doc/20_基本設計/01_画面系/ホームページ：個人情報.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：個人情報.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2f60d9ec78121ce/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{969301BF-8298-47E4-A55A-6E0AB1F17D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17CB97D-C11B-4385-9258-61496860D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
@@ -2407,6 +2407,70 @@
               </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>143218</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>195753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192157</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>222259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A83B51D-E574-4BB1-A1BE-4450BBF0AE9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827861" y="2051057"/>
+          <a:ext cx="718174" cy="258419"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>取得のみ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2715,7 +2779,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/doc/20_基本設計/01_画面系/ホームページ：個人情報.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：個人情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17CB97D-C11B-4385-9258-61496860D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA08DEF-39E0-487B-B7B6-2B5AFD21E982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
@@ -446,9 +446,8 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -457,85 +456,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>承認待ち一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>442953</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>207728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488673</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>74874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C785026-DA4A-4F0D-947A-D1BDBE5ACCB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="442953" y="2526858"/>
-          <a:ext cx="1384190" cy="330973"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>承認完了一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク一覧</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1982,7 +1907,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -1996,7 +1921,7 @@
             <a:t>Oracle</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -2010,7 +1935,7 @@
             <a:t>認定</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -2024,7 +1949,7 @@
             <a:t>Java</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -2037,7 +1962,7 @@
             </a:rPr>
             <a:t>プログラマ</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
             <a:solidFill>
               <a:schemeClr val="accent1">
                 <a:lumMod val="75000"/>
@@ -2052,7 +1977,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -2066,7 +1991,7 @@
             <a:t>Java</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -2079,7 +2004,7 @@
             </a:rPr>
             <a:t>プログラミング能力認定試験</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
             <a:solidFill>
               <a:schemeClr val="accent1">
                 <a:lumMod val="75000"/>
@@ -2094,7 +2019,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -2108,7 +2033,7 @@
             <a:t>Android</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -2121,7 +2046,7 @@
             </a:rPr>
             <a:t>技術者認定試験</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
             <a:solidFill>
               <a:schemeClr val="accent1">
                 <a:lumMod val="75000"/>
@@ -2779,7 +2704,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
